--- a/biology/Zoologie/Hyles_calida/Hyles_calida.xlsx
+++ b/biology/Zoologie/Hyles_calida/Hyles_calida.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hyles calida est une espèce de lépidoptères (papillons) appartenant à la famille des Sphingidae.
 </t>
@@ -511,7 +523,9 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce est endémique de Kauai, Oahu, Molokai et Hawaii.
 </t>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les chenilles ont une taille d'environ 60 mm.</t>
         </is>
@@ -572,7 +588,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les chenilles se nourrissent sur Acacia koa, Bobea elatior, sur les espèces des genres Coprosma, Gardenia, Metrosideros, Pelea, Scaevola chamissoniana, Scaevola gaudichaudiana et Straussia. 
 Les adultes se nourrissent sur les fleurs de Lantana, Metrosideros et d'autres.
@@ -604,17 +622,88 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>L'espèce Hylies calida a été décrite par l'entomologiste britannique Arthur Gardiner Butler en 1881[1].
-Synonymie
-Deilephila calida Butler, 1881 Protonyme
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Hylies calida a été décrite par l'entomologiste britannique Arthur Gardiner Butler en 1881.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Hyles_calida</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hyles_calida</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Deilephila calida Butler, 1881 Protonyme
 Celerio calida
 Hawaiina calida
-Celerio calida hawaiiensis Rothschild &amp; Jordan, 1915
-Liste des sous-espèces
-Hyles calida calida (Kauai, Oahu &amp; Molokai)
-Hyles calida hawaiiensis Rothschild &amp; Jordan, 1915 (Hawaii)[2].</t>
+Celerio calida hawaiiensis Rothschild &amp; Jordan, 1915</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Hyles_calida</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hyles_calida</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Liste des sous-espèces</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Hyles calida calida (Kauai, Oahu &amp; Molokai)
+Hyles calida hawaiiensis Rothschild &amp; Jordan, 1915 (Hawaii).</t>
         </is>
       </c>
     </row>
